--- a/app/public/assets/tpl.xlsx
+++ b/app/public/assets/tpl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adams/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adams/Documents/videodir/mic/app/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A8F03-E9A2-A141-85E3-0F721513D834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB79BB-948B-7B4B-8C40-C32692B212DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="3340" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -126,6 +126,20 @@
   <si>
     <t>4:55</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1344,9 +1358,10 @@
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:14" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1372,22 +1387,25 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1412,8 +1430,8 @@
       <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1422,13 +1440,16 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18">
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1453,14 +1474,14 @@
       <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1468,8 +1489,11 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="18">
+    <row r="4" spans="1:14" ht="18">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1494,19 +1518,22 @@
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
